--- a/Win32/Binaries/Table/gainstrength.xlsx
+++ b/Win32/Binaries/Table/gainstrength.xlsx
@@ -426,7 +426,7 @@
   <dimension ref="A1:D99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C15" sqref="C15:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -472,7 +472,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="D3">
         <v>50</v>
@@ -486,7 +486,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="D4">
         <v>50</v>
@@ -500,7 +500,7 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="D5">
         <v>50</v>
@@ -514,7 +514,7 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="D6">
         <v>50</v>
@@ -528,7 +528,7 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="D7">
         <v>50</v>
@@ -542,7 +542,7 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="D8">
         <v>50</v>
@@ -556,7 +556,7 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="D9">
         <v>50</v>
@@ -570,7 +570,7 @@
         <v>3</v>
       </c>
       <c r="C10">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="D10">
         <v>50</v>
@@ -584,7 +584,7 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="D11">
         <v>50</v>
@@ -598,7 +598,7 @@
         <v>2</v>
       </c>
       <c r="C12">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="D12">
         <v>50</v>
@@ -612,7 +612,7 @@
         <v>3</v>
       </c>
       <c r="C13">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D13">
         <v>50</v>
@@ -626,7 +626,7 @@
         <v>4</v>
       </c>
       <c r="C14">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="D14">
         <v>50</v>
@@ -640,7 +640,7 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="D15">
         <v>50</v>
@@ -654,7 +654,7 @@
         <v>2</v>
       </c>
       <c r="C16">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="D16">
         <v>50</v>
@@ -668,7 +668,7 @@
         <v>3</v>
       </c>
       <c r="C17">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D17">
         <v>50</v>
@@ -682,7 +682,7 @@
         <v>4</v>
       </c>
       <c r="C18">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="D18">
         <v>50</v>
@@ -696,7 +696,7 @@
         <v>5</v>
       </c>
       <c r="C19">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D19">
         <v>50</v>
@@ -710,7 +710,7 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="D20">
         <v>50</v>
@@ -724,7 +724,7 @@
         <v>2</v>
       </c>
       <c r="C21">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="D21">
         <v>50</v>
@@ -738,7 +738,7 @@
         <v>3</v>
       </c>
       <c r="C22">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D22">
         <v>50</v>
@@ -752,7 +752,7 @@
         <v>4</v>
       </c>
       <c r="C23">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="D23">
         <v>50</v>
@@ -766,7 +766,7 @@
         <v>5</v>
       </c>
       <c r="C24">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D24">
         <v>50</v>
@@ -780,7 +780,7 @@
         <v>6</v>
       </c>
       <c r="C25">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D25">
         <v>50</v>
@@ -794,7 +794,7 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="D26">
         <v>50</v>
@@ -808,7 +808,7 @@
         <v>2</v>
       </c>
       <c r="C27">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="D27">
         <v>50</v>
@@ -822,7 +822,7 @@
         <v>3</v>
       </c>
       <c r="C28">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D28">
         <v>50</v>
@@ -836,7 +836,7 @@
         <v>4</v>
       </c>
       <c r="C29">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="D29">
         <v>50</v>
@@ -850,7 +850,7 @@
         <v>5</v>
       </c>
       <c r="C30">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D30">
         <v>50</v>
@@ -864,7 +864,7 @@
         <v>6</v>
       </c>
       <c r="C31">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D31">
         <v>50</v>
@@ -878,7 +878,7 @@
         <v>7</v>
       </c>
       <c r="C32">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="D32">
         <v>50</v>
@@ -892,7 +892,7 @@
         <v>1</v>
       </c>
       <c r="C33">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="D33">
         <v>50</v>
@@ -906,7 +906,7 @@
         <v>2</v>
       </c>
       <c r="C34">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="D34">
         <v>50</v>
@@ -920,7 +920,7 @@
         <v>3</v>
       </c>
       <c r="C35">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D35">
         <v>50</v>
@@ -934,7 +934,7 @@
         <v>4</v>
       </c>
       <c r="C36">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="D36">
         <v>50</v>
@@ -948,7 +948,7 @@
         <v>5</v>
       </c>
       <c r="C37">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D37">
         <v>50</v>
@@ -962,7 +962,7 @@
         <v>6</v>
       </c>
       <c r="C38">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D38">
         <v>50</v>
@@ -976,7 +976,7 @@
         <v>7</v>
       </c>
       <c r="C39">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="D39">
         <v>50</v>
@@ -990,7 +990,7 @@
         <v>8</v>
       </c>
       <c r="C40">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="D40">
         <v>50</v>
@@ -1004,7 +1004,7 @@
         <v>1</v>
       </c>
       <c r="C41">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="D41">
         <v>50</v>
@@ -1018,7 +1018,7 @@
         <v>2</v>
       </c>
       <c r="C42">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="D42">
         <v>50</v>
@@ -1032,7 +1032,7 @@
         <v>3</v>
       </c>
       <c r="C43">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D43">
         <v>50</v>
@@ -1046,7 +1046,7 @@
         <v>4</v>
       </c>
       <c r="C44">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="D44">
         <v>50</v>
@@ -1060,7 +1060,7 @@
         <v>5</v>
       </c>
       <c r="C45">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D45">
         <v>50</v>
@@ -1074,7 +1074,7 @@
         <v>6</v>
       </c>
       <c r="C46">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D46">
         <v>50</v>
@@ -1088,7 +1088,7 @@
         <v>7</v>
       </c>
       <c r="C47">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="D47">
         <v>50</v>
@@ -1102,7 +1102,7 @@
         <v>8</v>
       </c>
       <c r="C48">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="D48">
         <v>50</v>
@@ -1116,7 +1116,7 @@
         <v>9</v>
       </c>
       <c r="C49">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D49">
         <v>50</v>
@@ -1130,7 +1130,7 @@
         <v>1</v>
       </c>
       <c r="C50">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="D50">
         <v>50</v>
@@ -1144,7 +1144,7 @@
         <v>2</v>
       </c>
       <c r="C51">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="D51">
         <v>50</v>
@@ -1158,7 +1158,7 @@
         <v>3</v>
       </c>
       <c r="C52">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D52">
         <v>50</v>
@@ -1172,7 +1172,7 @@
         <v>4</v>
       </c>
       <c r="C53">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="D53">
         <v>50</v>
@@ -1186,7 +1186,7 @@
         <v>5</v>
       </c>
       <c r="C54">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D54">
         <v>50</v>
@@ -1200,7 +1200,7 @@
         <v>6</v>
       </c>
       <c r="C55">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D55">
         <v>50</v>
@@ -1214,7 +1214,7 @@
         <v>7</v>
       </c>
       <c r="C56">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="D56">
         <v>50</v>
@@ -1228,7 +1228,7 @@
         <v>8</v>
       </c>
       <c r="C57">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="D57">
         <v>50</v>
@@ -1242,7 +1242,7 @@
         <v>9</v>
       </c>
       <c r="C58">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D58">
         <v>50</v>
@@ -1256,7 +1256,7 @@
         <v>10</v>
       </c>
       <c r="C59">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D59">
         <v>50</v>
@@ -1270,7 +1270,7 @@
         <v>1</v>
       </c>
       <c r="C60">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="D60">
         <v>50</v>
@@ -1284,7 +1284,7 @@
         <v>2</v>
       </c>
       <c r="C61">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="D61">
         <v>50</v>
@@ -1298,7 +1298,7 @@
         <v>3</v>
       </c>
       <c r="C62">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D62">
         <v>50</v>
@@ -1312,7 +1312,7 @@
         <v>4</v>
       </c>
       <c r="C63">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="D63">
         <v>50</v>
@@ -1326,7 +1326,7 @@
         <v>5</v>
       </c>
       <c r="C64">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D64">
         <v>50</v>
@@ -1340,7 +1340,7 @@
         <v>6</v>
       </c>
       <c r="C65">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D65">
         <v>50</v>
@@ -1354,7 +1354,7 @@
         <v>7</v>
       </c>
       <c r="C66">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="D66">
         <v>50</v>
@@ -1368,7 +1368,7 @@
         <v>8</v>
       </c>
       <c r="C67">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="D67">
         <v>50</v>
@@ -1382,7 +1382,7 @@
         <v>9</v>
       </c>
       <c r="C68">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D68">
         <v>50</v>
@@ -1396,7 +1396,7 @@
         <v>10</v>
       </c>
       <c r="C69">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D69">
         <v>50</v>
@@ -1410,7 +1410,7 @@
         <v>1</v>
       </c>
       <c r="C70">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="D70">
         <v>50</v>
@@ -1424,7 +1424,7 @@
         <v>2</v>
       </c>
       <c r="C71">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="D71">
         <v>50</v>
@@ -1438,7 +1438,7 @@
         <v>3</v>
       </c>
       <c r="C72">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D72">
         <v>50</v>
@@ -1452,7 +1452,7 @@
         <v>4</v>
       </c>
       <c r="C73">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="D73">
         <v>50</v>
@@ -1466,7 +1466,7 @@
         <v>5</v>
       </c>
       <c r="C74">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D74">
         <v>50</v>
@@ -1480,7 +1480,7 @@
         <v>6</v>
       </c>
       <c r="C75">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D75">
         <v>50</v>
@@ -1494,7 +1494,7 @@
         <v>7</v>
       </c>
       <c r="C76">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="D76">
         <v>50</v>
@@ -1508,7 +1508,7 @@
         <v>8</v>
       </c>
       <c r="C77">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="D77">
         <v>50</v>
@@ -1522,7 +1522,7 @@
         <v>9</v>
       </c>
       <c r="C78">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D78">
         <v>50</v>
@@ -1536,7 +1536,7 @@
         <v>10</v>
       </c>
       <c r="C79">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D79">
         <v>50</v>
@@ -1550,7 +1550,7 @@
         <v>1</v>
       </c>
       <c r="C80">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="D80">
         <v>50</v>
@@ -1564,7 +1564,7 @@
         <v>2</v>
       </c>
       <c r="C81">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="D81">
         <v>50</v>
@@ -1578,7 +1578,7 @@
         <v>3</v>
       </c>
       <c r="C82">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D82">
         <v>50</v>
@@ -1592,7 +1592,7 @@
         <v>4</v>
       </c>
       <c r="C83">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="D83">
         <v>50</v>
@@ -1606,7 +1606,7 @@
         <v>5</v>
       </c>
       <c r="C84">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D84">
         <v>50</v>
@@ -1620,7 +1620,7 @@
         <v>6</v>
       </c>
       <c r="C85">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D85">
         <v>50</v>
@@ -1634,7 +1634,7 @@
         <v>7</v>
       </c>
       <c r="C86">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="D86">
         <v>50</v>
@@ -1648,7 +1648,7 @@
         <v>8</v>
       </c>
       <c r="C87">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="D87">
         <v>50</v>
@@ -1662,7 +1662,7 @@
         <v>9</v>
       </c>
       <c r="C88">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D88">
         <v>50</v>
@@ -1676,7 +1676,7 @@
         <v>10</v>
       </c>
       <c r="C89">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D89">
         <v>50</v>
@@ -1690,7 +1690,7 @@
         <v>1</v>
       </c>
       <c r="C90">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="D90">
         <v>50</v>
@@ -1704,7 +1704,7 @@
         <v>2</v>
       </c>
       <c r="C91">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="D91">
         <v>50</v>
@@ -1718,7 +1718,7 @@
         <v>3</v>
       </c>
       <c r="C92">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D92">
         <v>50</v>
@@ -1732,7 +1732,7 @@
         <v>4</v>
       </c>
       <c r="C93">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="D93">
         <v>50</v>
@@ -1746,7 +1746,7 @@
         <v>5</v>
       </c>
       <c r="C94">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D94">
         <v>50</v>
@@ -1760,7 +1760,7 @@
         <v>6</v>
       </c>
       <c r="C95">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D95">
         <v>50</v>
@@ -1774,7 +1774,7 @@
         <v>7</v>
       </c>
       <c r="C96">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="D96">
         <v>50</v>
@@ -1788,7 +1788,7 @@
         <v>8</v>
       </c>
       <c r="C97">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="D97">
         <v>50</v>
@@ -1802,7 +1802,7 @@
         <v>9</v>
       </c>
       <c r="C98">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D98">
         <v>50</v>
@@ -1816,7 +1816,7 @@
         <v>10</v>
       </c>
       <c r="C99">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D99">
         <v>50</v>
@@ -1893,7 +1893,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <f>IF($B4&lt;=3,100,IF(AND($B4&gt;=4,$B4&lt;=6),150,IF(AND($B4&gt;=7,$B4&lt;=10),200,IF(AND($B4&gt;=11,$B4&lt;=15),250))))</f>
+        <f t="shared" ref="C4:C35" si="0">IF($B4&lt;=3,100,IF(AND($B4&gt;=4,$B4&lt;=6),150,IF(AND($B4&gt;=7,$B4&lt;=10),200,IF(AND($B4&gt;=11,$B4&lt;=15),250))))</f>
         <v>100</v>
       </c>
       <c r="D4">
@@ -1908,7 +1908,7 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <f>IF($B5&lt;=3,100,IF(AND($B5&gt;=4,$B5&lt;=6),150,IF(AND($B5&gt;=7,$B5&lt;=10),200,IF(AND($B5&gt;=11,$B5&lt;=15),250))))</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D5">
@@ -1923,7 +1923,7 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <f>IF($B6&lt;=3,100,IF(AND($B6&gt;=4,$B6&lt;=6),150,IF(AND($B6&gt;=7,$B6&lt;=10),200,IF(AND($B6&gt;=11,$B6&lt;=15),250))))</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D6">
@@ -1938,7 +1938,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <f>IF($B7&lt;=3,100,IF(AND($B7&gt;=4,$B7&lt;=6),150,IF(AND($B7&gt;=7,$B7&lt;=10),200,IF(AND($B7&gt;=11,$B7&lt;=15),250))))</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D7">
@@ -1953,7 +1953,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <f>IF($B8&lt;=3,100,IF(AND($B8&gt;=4,$B8&lt;=6),150,IF(AND($B8&gt;=7,$B8&lt;=10),200,IF(AND($B8&gt;=11,$B8&lt;=15),250))))</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D8">
@@ -1968,7 +1968,7 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <f>IF($B9&lt;=3,100,IF(AND($B9&gt;=4,$B9&lt;=6),150,IF(AND($B9&gt;=7,$B9&lt;=10),200,IF(AND($B9&gt;=11,$B9&lt;=15),250))))</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D9">
@@ -1983,7 +1983,7 @@
         <v>2</v>
       </c>
       <c r="C10">
-        <f>IF($B10&lt;=3,100,IF(AND($B10&gt;=4,$B10&lt;=6),150,IF(AND($B10&gt;=7,$B10&lt;=10),200,IF(AND($B10&gt;=11,$B10&lt;=15),250))))</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D10">
@@ -1998,7 +1998,7 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <f>IF($B11&lt;=3,100,IF(AND($B11&gt;=4,$B11&lt;=6),150,IF(AND($B11&gt;=7,$B11&lt;=10),200,IF(AND($B11&gt;=11,$B11&lt;=15),250))))</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D11">
@@ -2013,7 +2013,7 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <f>IF($B12&lt;=3,100,IF(AND($B12&gt;=4,$B12&lt;=6),150,IF(AND($B12&gt;=7,$B12&lt;=10),200,IF(AND($B12&gt;=11,$B12&lt;=15),250))))</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D12">
@@ -2028,7 +2028,7 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <f>IF($B13&lt;=3,100,IF(AND($B13&gt;=4,$B13&lt;=6),150,IF(AND($B13&gt;=7,$B13&lt;=10),200,IF(AND($B13&gt;=11,$B13&lt;=15),250))))</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D13">
@@ -2043,7 +2043,7 @@
         <v>3</v>
       </c>
       <c r="C14">
-        <f>IF($B14&lt;=3,100,IF(AND($B14&gt;=4,$B14&lt;=6),150,IF(AND($B14&gt;=7,$B14&lt;=10),200,IF(AND($B14&gt;=11,$B14&lt;=15),250))))</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D14">
@@ -2058,7 +2058,7 @@
         <v>4</v>
       </c>
       <c r="C15">
-        <f>IF($B15&lt;=3,100,IF(AND($B15&gt;=4,$B15&lt;=6),150,IF(AND($B15&gt;=7,$B15&lt;=10),200,IF(AND($B15&gt;=11,$B15&lt;=15),250))))</f>
+        <f t="shared" si="0"/>
         <v>150</v>
       </c>
       <c r="D15">
@@ -2073,7 +2073,7 @@
         <v>1</v>
       </c>
       <c r="C16">
-        <f>IF($B16&lt;=3,100,IF(AND($B16&gt;=4,$B16&lt;=6),150,IF(AND($B16&gt;=7,$B16&lt;=10),200,IF(AND($B16&gt;=11,$B16&lt;=15),250))))</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D16">
@@ -2088,7 +2088,7 @@
         <v>2</v>
       </c>
       <c r="C17">
-        <f>IF($B17&lt;=3,100,IF(AND($B17&gt;=4,$B17&lt;=6),150,IF(AND($B17&gt;=7,$B17&lt;=10),200,IF(AND($B17&gt;=11,$B17&lt;=15),250))))</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D17">
@@ -2103,7 +2103,7 @@
         <v>3</v>
       </c>
       <c r="C18">
-        <f>IF($B18&lt;=3,100,IF(AND($B18&gt;=4,$B18&lt;=6),150,IF(AND($B18&gt;=7,$B18&lt;=10),200,IF(AND($B18&gt;=11,$B18&lt;=15),250))))</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D18">
@@ -2118,7 +2118,7 @@
         <v>4</v>
       </c>
       <c r="C19">
-        <f>IF($B19&lt;=3,100,IF(AND($B19&gt;=4,$B19&lt;=6),150,IF(AND($B19&gt;=7,$B19&lt;=10),200,IF(AND($B19&gt;=11,$B19&lt;=15),250))))</f>
+        <f t="shared" si="0"/>
         <v>150</v>
       </c>
       <c r="D19">
@@ -2133,7 +2133,7 @@
         <v>5</v>
       </c>
       <c r="C20">
-        <f>IF($B20&lt;=3,100,IF(AND($B20&gt;=4,$B20&lt;=6),150,IF(AND($B20&gt;=7,$B20&lt;=10),200,IF(AND($B20&gt;=11,$B20&lt;=15),250))))</f>
+        <f t="shared" si="0"/>
         <v>150</v>
       </c>
       <c r="D20">
@@ -2148,7 +2148,7 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <f>IF($B21&lt;=3,100,IF(AND($B21&gt;=4,$B21&lt;=6),150,IF(AND($B21&gt;=7,$B21&lt;=10),200,IF(AND($B21&gt;=11,$B21&lt;=15),250))))</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D21">
@@ -2163,7 +2163,7 @@
         <v>2</v>
       </c>
       <c r="C22">
-        <f>IF($B22&lt;=3,100,IF(AND($B22&gt;=4,$B22&lt;=6),150,IF(AND($B22&gt;=7,$B22&lt;=10),200,IF(AND($B22&gt;=11,$B22&lt;=15),250))))</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D22">
@@ -2178,7 +2178,7 @@
         <v>3</v>
       </c>
       <c r="C23">
-        <f>IF($B23&lt;=3,100,IF(AND($B23&gt;=4,$B23&lt;=6),150,IF(AND($B23&gt;=7,$B23&lt;=10),200,IF(AND($B23&gt;=11,$B23&lt;=15),250))))</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D23">
@@ -2193,7 +2193,7 @@
         <v>4</v>
       </c>
       <c r="C24">
-        <f>IF($B24&lt;=3,100,IF(AND($B24&gt;=4,$B24&lt;=6),150,IF(AND($B24&gt;=7,$B24&lt;=10),200,IF(AND($B24&gt;=11,$B24&lt;=15),250))))</f>
+        <f t="shared" si="0"/>
         <v>150</v>
       </c>
       <c r="D24">
@@ -2208,7 +2208,7 @@
         <v>5</v>
       </c>
       <c r="C25">
-        <f>IF($B25&lt;=3,100,IF(AND($B25&gt;=4,$B25&lt;=6),150,IF(AND($B25&gt;=7,$B25&lt;=10),200,IF(AND($B25&gt;=11,$B25&lt;=15),250))))</f>
+        <f t="shared" si="0"/>
         <v>150</v>
       </c>
       <c r="D25">
@@ -2223,7 +2223,7 @@
         <v>6</v>
       </c>
       <c r="C26">
-        <f>IF($B26&lt;=3,100,IF(AND($B26&gt;=4,$B26&lt;=6),150,IF(AND($B26&gt;=7,$B26&lt;=10),200,IF(AND($B26&gt;=11,$B26&lt;=15),250))))</f>
+        <f t="shared" si="0"/>
         <v>150</v>
       </c>
       <c r="D26">
@@ -2238,7 +2238,7 @@
         <v>1</v>
       </c>
       <c r="C27">
-        <f>IF($B27&lt;=3,100,IF(AND($B27&gt;=4,$B27&lt;=6),150,IF(AND($B27&gt;=7,$B27&lt;=10),200,IF(AND($B27&gt;=11,$B27&lt;=15),250))))</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D27">
@@ -2253,7 +2253,7 @@
         <v>2</v>
       </c>
       <c r="C28">
-        <f>IF($B28&lt;=3,100,IF(AND($B28&gt;=4,$B28&lt;=6),150,IF(AND($B28&gt;=7,$B28&lt;=10),200,IF(AND($B28&gt;=11,$B28&lt;=15),250))))</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D28">
@@ -2268,7 +2268,7 @@
         <v>3</v>
       </c>
       <c r="C29">
-        <f>IF($B29&lt;=3,100,IF(AND($B29&gt;=4,$B29&lt;=6),150,IF(AND($B29&gt;=7,$B29&lt;=10),200,IF(AND($B29&gt;=11,$B29&lt;=15),250))))</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D29">
@@ -2283,7 +2283,7 @@
         <v>4</v>
       </c>
       <c r="C30">
-        <f>IF($B30&lt;=3,100,IF(AND($B30&gt;=4,$B30&lt;=6),150,IF(AND($B30&gt;=7,$B30&lt;=10),200,IF(AND($B30&gt;=11,$B30&lt;=15),250))))</f>
+        <f t="shared" si="0"/>
         <v>150</v>
       </c>
       <c r="D30">
@@ -2298,7 +2298,7 @@
         <v>5</v>
       </c>
       <c r="C31">
-        <f>IF($B31&lt;=3,100,IF(AND($B31&gt;=4,$B31&lt;=6),150,IF(AND($B31&gt;=7,$B31&lt;=10),200,IF(AND($B31&gt;=11,$B31&lt;=15),250))))</f>
+        <f t="shared" si="0"/>
         <v>150</v>
       </c>
       <c r="D31">
@@ -2313,7 +2313,7 @@
         <v>6</v>
       </c>
       <c r="C32">
-        <f>IF($B32&lt;=3,100,IF(AND($B32&gt;=4,$B32&lt;=6),150,IF(AND($B32&gt;=7,$B32&lt;=10),200,IF(AND($B32&gt;=11,$B32&lt;=15),250))))</f>
+        <f t="shared" si="0"/>
         <v>150</v>
       </c>
       <c r="D32">
@@ -2328,7 +2328,7 @@
         <v>7</v>
       </c>
       <c r="C33">
-        <f>IF($B33&lt;=3,100,IF(AND($B33&gt;=4,$B33&lt;=6),150,IF(AND($B33&gt;=7,$B33&lt;=10),200,IF(AND($B33&gt;=11,$B33&lt;=15),250))))</f>
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="D33">
@@ -2343,7 +2343,7 @@
         <v>1</v>
       </c>
       <c r="C34">
-        <f>IF($B34&lt;=3,100,IF(AND($B34&gt;=4,$B34&lt;=6),150,IF(AND($B34&gt;=7,$B34&lt;=10),200,IF(AND($B34&gt;=11,$B34&lt;=15),250))))</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D34">
@@ -2358,7 +2358,7 @@
         <v>2</v>
       </c>
       <c r="C35">
-        <f>IF($B35&lt;=3,100,IF(AND($B35&gt;=4,$B35&lt;=6),150,IF(AND($B35&gt;=7,$B35&lt;=10),200,IF(AND($B35&gt;=11,$B35&lt;=15),250))))</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D35">
@@ -2373,7 +2373,7 @@
         <v>3</v>
       </c>
       <c r="C36">
-        <f>IF($B36&lt;=3,100,IF(AND($B36&gt;=4,$B36&lt;=6),150,IF(AND($B36&gt;=7,$B36&lt;=10),200,IF(AND($B36&gt;=11,$B36&lt;=15),250))))</f>
+        <f t="shared" ref="C36:C67" si="1">IF($B36&lt;=3,100,IF(AND($B36&gt;=4,$B36&lt;=6),150,IF(AND($B36&gt;=7,$B36&lt;=10),200,IF(AND($B36&gt;=11,$B36&lt;=15),250))))</f>
         <v>100</v>
       </c>
       <c r="D36">
@@ -2388,7 +2388,7 @@
         <v>4</v>
       </c>
       <c r="C37">
-        <f>IF($B37&lt;=3,100,IF(AND($B37&gt;=4,$B37&lt;=6),150,IF(AND($B37&gt;=7,$B37&lt;=10),200,IF(AND($B37&gt;=11,$B37&lt;=15),250))))</f>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
       <c r="D37">
@@ -2403,7 +2403,7 @@
         <v>5</v>
       </c>
       <c r="C38">
-        <f>IF($B38&lt;=3,100,IF(AND($B38&gt;=4,$B38&lt;=6),150,IF(AND($B38&gt;=7,$B38&lt;=10),200,IF(AND($B38&gt;=11,$B38&lt;=15),250))))</f>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
       <c r="D38">
@@ -2418,7 +2418,7 @@
         <v>6</v>
       </c>
       <c r="C39">
-        <f>IF($B39&lt;=3,100,IF(AND($B39&gt;=4,$B39&lt;=6),150,IF(AND($B39&gt;=7,$B39&lt;=10),200,IF(AND($B39&gt;=11,$B39&lt;=15),250))))</f>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
       <c r="D39">
@@ -2433,7 +2433,7 @@
         <v>7</v>
       </c>
       <c r="C40">
-        <f>IF($B40&lt;=3,100,IF(AND($B40&gt;=4,$B40&lt;=6),150,IF(AND($B40&gt;=7,$B40&lt;=10),200,IF(AND($B40&gt;=11,$B40&lt;=15),250))))</f>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="D40">
@@ -2448,7 +2448,7 @@
         <v>8</v>
       </c>
       <c r="C41">
-        <f>IF($B41&lt;=3,100,IF(AND($B41&gt;=4,$B41&lt;=6),150,IF(AND($B41&gt;=7,$B41&lt;=10),200,IF(AND($B41&gt;=11,$B41&lt;=15),250))))</f>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="D41">
@@ -2463,7 +2463,7 @@
         <v>1</v>
       </c>
       <c r="C42">
-        <f>IF($B42&lt;=3,100,IF(AND($B42&gt;=4,$B42&lt;=6),150,IF(AND($B42&gt;=7,$B42&lt;=10),200,IF(AND($B42&gt;=11,$B42&lt;=15),250))))</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="D42">
@@ -2478,7 +2478,7 @@
         <v>2</v>
       </c>
       <c r="C43">
-        <f>IF($B43&lt;=3,100,IF(AND($B43&gt;=4,$B43&lt;=6),150,IF(AND($B43&gt;=7,$B43&lt;=10),200,IF(AND($B43&gt;=11,$B43&lt;=15),250))))</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="D43">
@@ -2493,7 +2493,7 @@
         <v>3</v>
       </c>
       <c r="C44">
-        <f>IF($B44&lt;=3,100,IF(AND($B44&gt;=4,$B44&lt;=6),150,IF(AND($B44&gt;=7,$B44&lt;=10),200,IF(AND($B44&gt;=11,$B44&lt;=15),250))))</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="D44">
@@ -2508,7 +2508,7 @@
         <v>4</v>
       </c>
       <c r="C45">
-        <f>IF($B45&lt;=3,100,IF(AND($B45&gt;=4,$B45&lt;=6),150,IF(AND($B45&gt;=7,$B45&lt;=10),200,IF(AND($B45&gt;=11,$B45&lt;=15),250))))</f>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
       <c r="D45">
@@ -2523,7 +2523,7 @@
         <v>5</v>
       </c>
       <c r="C46">
-        <f>IF($B46&lt;=3,100,IF(AND($B46&gt;=4,$B46&lt;=6),150,IF(AND($B46&gt;=7,$B46&lt;=10),200,IF(AND($B46&gt;=11,$B46&lt;=15),250))))</f>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
       <c r="D46">
@@ -2538,7 +2538,7 @@
         <v>6</v>
       </c>
       <c r="C47">
-        <f>IF($B47&lt;=3,100,IF(AND($B47&gt;=4,$B47&lt;=6),150,IF(AND($B47&gt;=7,$B47&lt;=10),200,IF(AND($B47&gt;=11,$B47&lt;=15),250))))</f>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
       <c r="D47">
@@ -2553,7 +2553,7 @@
         <v>7</v>
       </c>
       <c r="C48">
-        <f>IF($B48&lt;=3,100,IF(AND($B48&gt;=4,$B48&lt;=6),150,IF(AND($B48&gt;=7,$B48&lt;=10),200,IF(AND($B48&gt;=11,$B48&lt;=15),250))))</f>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="D48">
@@ -2568,7 +2568,7 @@
         <v>8</v>
       </c>
       <c r="C49">
-        <f>IF($B49&lt;=3,100,IF(AND($B49&gt;=4,$B49&lt;=6),150,IF(AND($B49&gt;=7,$B49&lt;=10),200,IF(AND($B49&gt;=11,$B49&lt;=15),250))))</f>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="D49">
@@ -2583,7 +2583,7 @@
         <v>9</v>
       </c>
       <c r="C50">
-        <f>IF($B50&lt;=3,100,IF(AND($B50&gt;=4,$B50&lt;=6),150,IF(AND($B50&gt;=7,$B50&lt;=10),200,IF(AND($B50&gt;=11,$B50&lt;=15),250))))</f>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="D50">
@@ -2598,7 +2598,7 @@
         <v>1</v>
       </c>
       <c r="C51">
-        <f>IF($B51&lt;=3,100,IF(AND($B51&gt;=4,$B51&lt;=6),150,IF(AND($B51&gt;=7,$B51&lt;=10),200,IF(AND($B51&gt;=11,$B51&lt;=15),250))))</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="D51">
@@ -2613,7 +2613,7 @@
         <v>2</v>
       </c>
       <c r="C52">
-        <f>IF($B52&lt;=3,100,IF(AND($B52&gt;=4,$B52&lt;=6),150,IF(AND($B52&gt;=7,$B52&lt;=10),200,IF(AND($B52&gt;=11,$B52&lt;=15),250))))</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="D52">
@@ -2628,7 +2628,7 @@
         <v>3</v>
       </c>
       <c r="C53">
-        <f>IF($B53&lt;=3,100,IF(AND($B53&gt;=4,$B53&lt;=6),150,IF(AND($B53&gt;=7,$B53&lt;=10),200,IF(AND($B53&gt;=11,$B53&lt;=15),250))))</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="D53">
@@ -2643,7 +2643,7 @@
         <v>4</v>
       </c>
       <c r="C54">
-        <f>IF($B54&lt;=3,100,IF(AND($B54&gt;=4,$B54&lt;=6),150,IF(AND($B54&gt;=7,$B54&lt;=10),200,IF(AND($B54&gt;=11,$B54&lt;=15),250))))</f>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
       <c r="D54">
@@ -2658,7 +2658,7 @@
         <v>5</v>
       </c>
       <c r="C55">
-        <f>IF($B55&lt;=3,100,IF(AND($B55&gt;=4,$B55&lt;=6),150,IF(AND($B55&gt;=7,$B55&lt;=10),200,IF(AND($B55&gt;=11,$B55&lt;=15),250))))</f>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
       <c r="D55">
@@ -2673,7 +2673,7 @@
         <v>6</v>
       </c>
       <c r="C56">
-        <f>IF($B56&lt;=3,100,IF(AND($B56&gt;=4,$B56&lt;=6),150,IF(AND($B56&gt;=7,$B56&lt;=10),200,IF(AND($B56&gt;=11,$B56&lt;=15),250))))</f>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
       <c r="D56">
@@ -2688,7 +2688,7 @@
         <v>7</v>
       </c>
       <c r="C57">
-        <f>IF($B57&lt;=3,100,IF(AND($B57&gt;=4,$B57&lt;=6),150,IF(AND($B57&gt;=7,$B57&lt;=10),200,IF(AND($B57&gt;=11,$B57&lt;=15),250))))</f>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="D57">
@@ -2703,7 +2703,7 @@
         <v>8</v>
       </c>
       <c r="C58">
-        <f>IF($B58&lt;=3,100,IF(AND($B58&gt;=4,$B58&lt;=6),150,IF(AND($B58&gt;=7,$B58&lt;=10),200,IF(AND($B58&gt;=11,$B58&lt;=15),250))))</f>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="D58">
@@ -2718,7 +2718,7 @@
         <v>9</v>
       </c>
       <c r="C59">
-        <f>IF($B59&lt;=3,100,IF(AND($B59&gt;=4,$B59&lt;=6),150,IF(AND($B59&gt;=7,$B59&lt;=10),200,IF(AND($B59&gt;=11,$B59&lt;=15),250))))</f>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="D59">
@@ -2733,7 +2733,7 @@
         <v>10</v>
       </c>
       <c r="C60">
-        <f>IF($B60&lt;=3,100,IF(AND($B60&gt;=4,$B60&lt;=6),150,IF(AND($B60&gt;=7,$B60&lt;=10),200,IF(AND($B60&gt;=11,$B60&lt;=15),250))))</f>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="D60">
@@ -2750,7 +2750,7 @@
         <v>1</v>
       </c>
       <c r="C61">
-        <f>IF($B61&lt;=3,100,IF(AND($B61&gt;=4,$B61&lt;=6),150,IF(AND($B61&gt;=7,$B61&lt;=10),200,IF(AND($B61&gt;=11,$B61&lt;=15),250))))</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="D61">
@@ -2759,15 +2759,15 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62">
-        <f t="shared" ref="A62:A100" si="0">A52+1</f>
+        <f t="shared" ref="A62:A100" si="2">A52+1</f>
         <v>11</v>
       </c>
       <c r="B62">
-        <f t="shared" ref="B62:B100" si="1">B52</f>
+        <f t="shared" ref="B62:B100" si="3">B52</f>
         <v>2</v>
       </c>
       <c r="C62">
-        <f>IF($B62&lt;=3,100,IF(AND($B62&gt;=4,$B62&lt;=6),150,IF(AND($B62&gt;=7,$B62&lt;=10),200,IF(AND($B62&gt;=11,$B62&lt;=15),250))))</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="D62">
@@ -2776,15 +2776,15 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="B63">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="C63">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="C63">
-        <f>IF($B63&lt;=3,100,IF(AND($B63&gt;=4,$B63&lt;=6),150,IF(AND($B63&gt;=7,$B63&lt;=10),200,IF(AND($B63&gt;=11,$B63&lt;=15),250))))</f>
         <v>100</v>
       </c>
       <c r="D63">
@@ -2793,15 +2793,15 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="B64">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="C64">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="C64">
-        <f>IF($B64&lt;=3,100,IF(AND($B64&gt;=4,$B64&lt;=6),150,IF(AND($B64&gt;=7,$B64&lt;=10),200,IF(AND($B64&gt;=11,$B64&lt;=15),250))))</f>
         <v>150</v>
       </c>
       <c r="D64">
@@ -2810,15 +2810,15 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="B65">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="C65">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="C65">
-        <f>IF($B65&lt;=3,100,IF(AND($B65&gt;=4,$B65&lt;=6),150,IF(AND($B65&gt;=7,$B65&lt;=10),200,IF(AND($B65&gt;=11,$B65&lt;=15),250))))</f>
         <v>150</v>
       </c>
       <c r="D65">
@@ -2827,15 +2827,15 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="B66">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="C66">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="C66">
-        <f>IF($B66&lt;=3,100,IF(AND($B66&gt;=4,$B66&lt;=6),150,IF(AND($B66&gt;=7,$B66&lt;=10),200,IF(AND($B66&gt;=11,$B66&lt;=15),250))))</f>
         <v>150</v>
       </c>
       <c r="D66">
@@ -2844,15 +2844,15 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="B67">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="C67">
         <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="C67">
-        <f>IF($B67&lt;=3,100,IF(AND($B67&gt;=4,$B67&lt;=6),150,IF(AND($B67&gt;=7,$B67&lt;=10),200,IF(AND($B67&gt;=11,$B67&lt;=15),250))))</f>
         <v>200</v>
       </c>
       <c r="D67">
@@ -2861,15 +2861,15 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="B68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="C68">
-        <f>IF($B68&lt;=3,100,IF(AND($B68&gt;=4,$B68&lt;=6),150,IF(AND($B68&gt;=7,$B68&lt;=10),200,IF(AND($B68&gt;=11,$B68&lt;=15),250))))</f>
+        <f t="shared" ref="C68:C100" si="4">IF($B68&lt;=3,100,IF(AND($B68&gt;=4,$B68&lt;=6),150,IF(AND($B68&gt;=7,$B68&lt;=10),200,IF(AND($B68&gt;=11,$B68&lt;=15),250))))</f>
         <v>200</v>
       </c>
       <c r="D68">
@@ -2878,15 +2878,15 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="B69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="C69">
-        <f>IF($B69&lt;=3,100,IF(AND($B69&gt;=4,$B69&lt;=6),150,IF(AND($B69&gt;=7,$B69&lt;=10),200,IF(AND($B69&gt;=11,$B69&lt;=15),250))))</f>
+        <f t="shared" si="4"/>
         <v>200</v>
       </c>
       <c r="D69">
@@ -2895,15 +2895,15 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="B70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="C70">
-        <f>IF($B70&lt;=3,100,IF(AND($B70&gt;=4,$B70&lt;=6),150,IF(AND($B70&gt;=7,$B70&lt;=10),200,IF(AND($B70&gt;=11,$B70&lt;=15),250))))</f>
+        <f t="shared" si="4"/>
         <v>200</v>
       </c>
       <c r="D70">
@@ -2912,15 +2912,15 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="B71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C71">
-        <f>IF($B71&lt;=3,100,IF(AND($B71&gt;=4,$B71&lt;=6),150,IF(AND($B71&gt;=7,$B71&lt;=10),200,IF(AND($B71&gt;=11,$B71&lt;=15),250))))</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="D71">
@@ -2929,15 +2929,15 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="B72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="C72">
-        <f>IF($B72&lt;=3,100,IF(AND($B72&gt;=4,$B72&lt;=6),150,IF(AND($B72&gt;=7,$B72&lt;=10),200,IF(AND($B72&gt;=11,$B72&lt;=15),250))))</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="D72">
@@ -2946,15 +2946,15 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="B73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="C73">
-        <f>IF($B73&lt;=3,100,IF(AND($B73&gt;=4,$B73&lt;=6),150,IF(AND($B73&gt;=7,$B73&lt;=10),200,IF(AND($B73&gt;=11,$B73&lt;=15),250))))</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="D73">
@@ -2963,15 +2963,15 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="B74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="C74">
-        <f>IF($B74&lt;=3,100,IF(AND($B74&gt;=4,$B74&lt;=6),150,IF(AND($B74&gt;=7,$B74&lt;=10),200,IF(AND($B74&gt;=11,$B74&lt;=15),250))))</f>
+        <f t="shared" si="4"/>
         <v>150</v>
       </c>
       <c r="D74">
@@ -2980,15 +2980,15 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="B75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="C75">
-        <f>IF($B75&lt;=3,100,IF(AND($B75&gt;=4,$B75&lt;=6),150,IF(AND($B75&gt;=7,$B75&lt;=10),200,IF(AND($B75&gt;=11,$B75&lt;=15),250))))</f>
+        <f t="shared" si="4"/>
         <v>150</v>
       </c>
       <c r="D75">
@@ -2997,15 +2997,15 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="B76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="C76">
-        <f>IF($B76&lt;=3,100,IF(AND($B76&gt;=4,$B76&lt;=6),150,IF(AND($B76&gt;=7,$B76&lt;=10),200,IF(AND($B76&gt;=11,$B76&lt;=15),250))))</f>
+        <f t="shared" si="4"/>
         <v>150</v>
       </c>
       <c r="D76">
@@ -3014,15 +3014,15 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="B77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="C77">
-        <f>IF($B77&lt;=3,100,IF(AND($B77&gt;=4,$B77&lt;=6),150,IF(AND($B77&gt;=7,$B77&lt;=10),200,IF(AND($B77&gt;=11,$B77&lt;=15),250))))</f>
+        <f t="shared" si="4"/>
         <v>200</v>
       </c>
       <c r="D77">
@@ -3031,15 +3031,15 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="B78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="C78">
-        <f>IF($B78&lt;=3,100,IF(AND($B78&gt;=4,$B78&lt;=6),150,IF(AND($B78&gt;=7,$B78&lt;=10),200,IF(AND($B78&gt;=11,$B78&lt;=15),250))))</f>
+        <f t="shared" si="4"/>
         <v>200</v>
       </c>
       <c r="D78">
@@ -3048,15 +3048,15 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="B79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="C79">
-        <f>IF($B79&lt;=3,100,IF(AND($B79&gt;=4,$B79&lt;=6),150,IF(AND($B79&gt;=7,$B79&lt;=10),200,IF(AND($B79&gt;=11,$B79&lt;=15),250))))</f>
+        <f t="shared" si="4"/>
         <v>200</v>
       </c>
       <c r="D79">
@@ -3065,15 +3065,15 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="B80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="C80">
-        <f>IF($B80&lt;=3,100,IF(AND($B80&gt;=4,$B80&lt;=6),150,IF(AND($B80&gt;=7,$B80&lt;=10),200,IF(AND($B80&gt;=11,$B80&lt;=15),250))))</f>
+        <f t="shared" si="4"/>
         <v>200</v>
       </c>
       <c r="D80">
@@ -3082,15 +3082,15 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="B81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C81">
-        <f>IF($B81&lt;=3,100,IF(AND($B81&gt;=4,$B81&lt;=6),150,IF(AND($B81&gt;=7,$B81&lt;=10),200,IF(AND($B81&gt;=11,$B81&lt;=15),250))))</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="D81">
@@ -3099,15 +3099,15 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A82">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="B82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="C82">
-        <f>IF($B82&lt;=3,100,IF(AND($B82&gt;=4,$B82&lt;=6),150,IF(AND($B82&gt;=7,$B82&lt;=10),200,IF(AND($B82&gt;=11,$B82&lt;=15),250))))</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="D82">
@@ -3116,15 +3116,15 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="B83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="C83">
-        <f>IF($B83&lt;=3,100,IF(AND($B83&gt;=4,$B83&lt;=6),150,IF(AND($B83&gt;=7,$B83&lt;=10),200,IF(AND($B83&gt;=11,$B83&lt;=15),250))))</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="D83">
@@ -3133,15 +3133,15 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="B84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="C84">
-        <f>IF($B84&lt;=3,100,IF(AND($B84&gt;=4,$B84&lt;=6),150,IF(AND($B84&gt;=7,$B84&lt;=10),200,IF(AND($B84&gt;=11,$B84&lt;=15),250))))</f>
+        <f t="shared" si="4"/>
         <v>150</v>
       </c>
       <c r="D84">
@@ -3150,15 +3150,15 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="B85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="C85">
-        <f>IF($B85&lt;=3,100,IF(AND($B85&gt;=4,$B85&lt;=6),150,IF(AND($B85&gt;=7,$B85&lt;=10),200,IF(AND($B85&gt;=11,$B85&lt;=15),250))))</f>
+        <f t="shared" si="4"/>
         <v>150</v>
       </c>
       <c r="D85">
@@ -3167,15 +3167,15 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="B86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="C86">
-        <f>IF($B86&lt;=3,100,IF(AND($B86&gt;=4,$B86&lt;=6),150,IF(AND($B86&gt;=7,$B86&lt;=10),200,IF(AND($B86&gt;=11,$B86&lt;=15),250))))</f>
+        <f t="shared" si="4"/>
         <v>150</v>
       </c>
       <c r="D86">
@@ -3184,15 +3184,15 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A87">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="B87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="C87">
-        <f>IF($B87&lt;=3,100,IF(AND($B87&gt;=4,$B87&lt;=6),150,IF(AND($B87&gt;=7,$B87&lt;=10),200,IF(AND($B87&gt;=11,$B87&lt;=15),250))))</f>
+        <f t="shared" si="4"/>
         <v>200</v>
       </c>
       <c r="D87">
@@ -3201,15 +3201,15 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A88">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="B88">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="C88">
-        <f>IF($B88&lt;=3,100,IF(AND($B88&gt;=4,$B88&lt;=6),150,IF(AND($B88&gt;=7,$B88&lt;=10),200,IF(AND($B88&gt;=11,$B88&lt;=15),250))))</f>
+        <f t="shared" si="4"/>
         <v>200</v>
       </c>
       <c r="D88">
@@ -3218,15 +3218,15 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A89">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="B89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="C89">
-        <f>IF($B89&lt;=3,100,IF(AND($B89&gt;=4,$B89&lt;=6),150,IF(AND($B89&gt;=7,$B89&lt;=10),200,IF(AND($B89&gt;=11,$B89&lt;=15),250))))</f>
+        <f t="shared" si="4"/>
         <v>200</v>
       </c>
       <c r="D89">
@@ -3235,15 +3235,15 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A90">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="B90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="C90">
-        <f>IF($B90&lt;=3,100,IF(AND($B90&gt;=4,$B90&lt;=6),150,IF(AND($B90&gt;=7,$B90&lt;=10),200,IF(AND($B90&gt;=11,$B90&lt;=15),250))))</f>
+        <f t="shared" si="4"/>
         <v>200</v>
       </c>
       <c r="D90">
@@ -3252,15 +3252,15 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A91">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="B91">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C91">
-        <f>IF($B91&lt;=3,100,IF(AND($B91&gt;=4,$B91&lt;=6),150,IF(AND($B91&gt;=7,$B91&lt;=10),200,IF(AND($B91&gt;=11,$B91&lt;=15),250))))</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="D91">
@@ -3269,15 +3269,15 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A92">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="B92">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="C92">
-        <f>IF($B92&lt;=3,100,IF(AND($B92&gt;=4,$B92&lt;=6),150,IF(AND($B92&gt;=7,$B92&lt;=10),200,IF(AND($B92&gt;=11,$B92&lt;=15),250))))</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="D92">
@@ -3286,15 +3286,15 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A93">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="B93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="C93">
-        <f>IF($B93&lt;=3,100,IF(AND($B93&gt;=4,$B93&lt;=6),150,IF(AND($B93&gt;=7,$B93&lt;=10),200,IF(AND($B93&gt;=11,$B93&lt;=15),250))))</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="D93">
@@ -3303,15 +3303,15 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A94">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="B94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="C94">
-        <f>IF($B94&lt;=3,100,IF(AND($B94&gt;=4,$B94&lt;=6),150,IF(AND($B94&gt;=7,$B94&lt;=10),200,IF(AND($B94&gt;=11,$B94&lt;=15),250))))</f>
+        <f t="shared" si="4"/>
         <v>150</v>
       </c>
       <c r="D94">
@@ -3328,7 +3328,7 @@
         <v>5</v>
       </c>
       <c r="C95">
-        <f>IF($B95&lt;=3,100,IF(AND($B95&gt;=4,$B95&lt;=6),150,IF(AND($B95&gt;=7,$B95&lt;=10),200,IF(AND($B95&gt;=11,$B95&lt;=15),250))))</f>
+        <f t="shared" si="4"/>
         <v>150</v>
       </c>
       <c r="D95">
@@ -3337,15 +3337,15 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A96">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="B96">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="C96">
-        <f>IF($B96&lt;=3,100,IF(AND($B96&gt;=4,$B96&lt;=6),150,IF(AND($B96&gt;=7,$B96&lt;=10),200,IF(AND($B96&gt;=11,$B96&lt;=15),250))))</f>
+        <f t="shared" si="4"/>
         <v>150</v>
       </c>
       <c r="D96">
@@ -3354,15 +3354,15 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A97">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="B97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="C97">
-        <f>IF($B97&lt;=3,100,IF(AND($B97&gt;=4,$B97&lt;=6),150,IF(AND($B97&gt;=7,$B97&lt;=10),200,IF(AND($B97&gt;=11,$B97&lt;=15),250))))</f>
+        <f t="shared" si="4"/>
         <v>200</v>
       </c>
       <c r="D97">
@@ -3371,15 +3371,15 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="B98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="C98">
-        <f>IF($B98&lt;=3,100,IF(AND($B98&gt;=4,$B98&lt;=6),150,IF(AND($B98&gt;=7,$B98&lt;=10),200,IF(AND($B98&gt;=11,$B98&lt;=15),250))))</f>
+        <f t="shared" si="4"/>
         <v>200</v>
       </c>
       <c r="D98">
@@ -3388,15 +3388,15 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A99">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="B99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="C99">
-        <f>IF($B99&lt;=3,100,IF(AND($B99&gt;=4,$B99&lt;=6),150,IF(AND($B99&gt;=7,$B99&lt;=10),200,IF(AND($B99&gt;=11,$B99&lt;=15),250))))</f>
+        <f t="shared" si="4"/>
         <v>200</v>
       </c>
       <c r="D99">
@@ -3405,15 +3405,15 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="B100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="C100">
-        <f>IF($B100&lt;=3,100,IF(AND($B100&gt;=4,$B100&lt;=6),150,IF(AND($B100&gt;=7,$B100&lt;=10),200,IF(AND($B100&gt;=11,$B100&lt;=15),250))))</f>
+        <f t="shared" si="4"/>
         <v>200</v>
       </c>
       <c r="D100">
